--- a/fabrication-data/trng-bom.xlsx
+++ b/fabrication-data/trng-bom.xlsx
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">BOM Version: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrokey TRNG USB - Chaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Aug. 2022</t>
+  </si>
   <si>
     <t xml:space="preserve">RD</t>
   </si>
@@ -43,6 +52,9 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative</t>
+  </si>
+  <si>
     <t xml:space="preserve">&gt;  C1, C2</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t xml:space="preserve">https://de.farnell.com/stmicroelectronics/tsv912iq2t/op-verst-rker-8mhz-4-5v-us-dfn/dp/2762662?CMP=GRHB-OCTOPART</t>
   </si>
   <si>
+    <t xml:space="preserve">TSV7722IQ2T</t>
+  </si>
+  <si>
     <t xml:space="preserve">    U5</t>
   </si>
   <si>
@@ -173,20 +188,25 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.de/en/products/detail/stmicroelectronics/TS3022IYST/8321879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX942EUA+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -204,10 +224,18 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,12 +280,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,138 +314,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="89.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>480372200</v>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>480372200</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2</v>
@@ -417,27 +435,36 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>480372200</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>480372200</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
@@ -451,105 +478,139 @@
         <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="F14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
+      <c r="E15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.digikey.de/en/products/detail/GRM1885C1H221JA01D/490-1435-1-ND/587673?curr=usd"/>
-    <hyperlink ref="G6" r:id="rId2" display="https://www.digikey.de/de/products/detail/molex/0480372200/2421361"/>
-    <hyperlink ref="G10" r:id="rId3" display="https://www.digikey.de/en/products/detail/ftdi-future-technology-devices-international-ltd/FT240XQ-T/3749473"/>
-    <hyperlink ref="G11" r:id="rId4" display="https://de.farnell.com/webapp/wcs/stores/servlet/ProductDisplay?catalogId=15001&amp;CMP=GRHB-OCTOPART&amp;productSeoURL=onsemi&amp;partNumber=2531589&amp;storeId=10161&amp;langId=-3&amp;krypto=MtGyFT4IPHKjHb1ikIgAFcglmNOWTSpVlwbwEsHlCUWCbbk%2B8Zb%2Fyr33uVmmwcPjkcZwcesuJIf39NMnhqGhiw%3D%3D"/>
-    <hyperlink ref="G12" r:id="rId5" display="https://de.farnell.com/stmicroelectronics/tsv912iq2t/op-verst-rker-8mhz-4-5v-us-dfn/dp/2762662?CMP=GRHB-OCTOPART"/>
-    <hyperlink ref="G13" r:id="rId6" display="https://www.digikey.de/en/products/detail/stmicroelectronics/TS3022IYST/8321879"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://www.digikey.de/en/products/detail/GRM1885C1H221JA01D/490-1435-1-ND/587673?curr=usd"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://www.digikey.de/de/products/detail/molex/0480372200/2421361"/>
+    <hyperlink ref="G12" r:id="rId3" display="https://www.digikey.de/en/products/detail/ftdi-future-technology-devices-international-ltd/FT240XQ-T/3749473"/>
+    <hyperlink ref="G13" r:id="rId4" display="https://de.farnell.com/webapp/wcs/stores/servlet/ProductDisplay?catalogId=15001&amp;CMP=GRHB-OCTOPART&amp;productSeoURL=onsemi&amp;partNumber=2531589&amp;storeId=10161&amp;langId=-3&amp;krypto=MtGyFT4IPHKjHb1ikIgAFcglmNOWTSpVlwbwEsHlCUWCbbk%2B8Zb%2Fyr33uVmmwcPjkcZwcesuJIf39NMnhqGhiw%3D%3D"/>
+    <hyperlink ref="G14" r:id="rId5" display="https://de.farnell.com/stmicroelectronics/tsv912iq2t/op-verst-rker-8mhz-4-5v-us-dfn/dp/2762662?CMP=GRHB-OCTOPART"/>
+    <hyperlink ref="G15" r:id="rId6" display="https://www.digikey.de/en/products/detail/stmicroelectronics/TS3022IYST/8321879"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>